--- a/data/My Workflow_check123/data.xlsx
+++ b/data/My Workflow_check123/data.xlsx
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -132,15 +138,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -451,28 +460,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -526,52 +535,70 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="4">
         <v>2718200038511</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J3" s="4">
         <v>94</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K3" s="4">
         <v>213</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L3" s="4">
         <v>191</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M3" s="4">
         <v>196</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N3" s="4">
         <v>199</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O3" s="4">
         <v>170</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P3" s="4">
         <v>12</v>
       </c>
     </row>
